--- a/note/力扣刷题表.xlsx
+++ b/note/力扣刷题表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning Materials\Arithmetic\algorithm014-algorithm014\note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsw67\Desktop\algorithm\algorithm014-algorithm014\note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC1600C-147D-47BD-88F3-FAA754A3F7F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEBE860-6F5C-4227-BD05-2E40FAE47593}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5355" yWindow="1410" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>8.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,14 @@
   </si>
   <si>
     <t>70.爬楼梯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.有效的括号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,7 +570,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -670,8 +678,12 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>

--- a/note/力扣刷题表.xlsx
+++ b/note/力扣刷题表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsw67\Desktop\algorithm\algorithm014-algorithm014\note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEBE860-6F5C-4227-BD05-2E40FAE47593}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE996031-4EE5-411E-930C-5E2EE9DA5A5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5355" yWindow="1410" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>8.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,22 @@
   </si>
   <si>
     <t>8.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大矩形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接雨水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,7 +586,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -659,7 +675,9 @@
       <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -691,8 +709,12 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -700,8 +722,12 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>

--- a/note/力扣刷题表.xlsx
+++ b/note/力扣刷题表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsw67\Desktop\algorithm\algorithm014-algorithm014\note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning Materials\Arithmetic\algorithm014-algorithm014\note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE996031-4EE5-411E-930C-5E2EE9DA5A5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A03CEF4-774A-48E4-983B-A470F4A8C51F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="1410" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>8.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,83 +35,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">                           时间       题目 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42. 接雨水</t>
+  </si>
+  <si>
+    <t>8.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84. 柱状图中最大的矩形</t>
+  </si>
+  <si>
+    <t>109. 有序链表转换二叉搜索树</t>
+  </si>
+  <si>
+    <t>20. 有效的括号</t>
+  </si>
+  <si>
+    <t>70. 爬楼梯</t>
+  </si>
+  <si>
+    <t>66. 加一</t>
+  </si>
+  <si>
+    <t>1. 两数之和</t>
+  </si>
+  <si>
+    <t>15. 三数之和</t>
+  </si>
+  <si>
     <t>146. LRU缓存机制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                           时间       题目 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15. 三数之和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 两数之和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>66. 加一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70.爬楼梯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20.有效的括号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大矩形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接雨水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.15</t>
+  </si>
+  <si>
+    <t>8.18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -119,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +139,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -209,35 +224,49 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -586,508 +615,539 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
-    <col min="2" max="6" width="6.625" style="2"/>
-    <col min="7" max="7" width="6.625" style="1"/>
-    <col min="8" max="16384" width="6.625" style="2"/>
+    <col min="1" max="1" width="26.875" style="7" customWidth="1"/>
+    <col min="2" max="6" width="6.625" style="7"/>
+    <col min="7" max="7" width="6.625" style="10"/>
+    <col min="8" max="16384" width="6.625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="D5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
+      <c r="B10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
     </row>
     <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
     </row>
     <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
     </row>
     <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1" display="https://leetcode-cn.com/problems/trapping-rain-water/" xr:uid="{5086A9D0-878F-4427-B3D1-F3EEC9013409}"/>
+    <hyperlink ref="A8" r:id="rId2" display="https://leetcode-cn.com/problems/largest-rectangle-in-histogram/" xr:uid="{168DB3AB-57D7-4633-BAE4-257EBBE7B195}"/>
+    <hyperlink ref="A10" r:id="rId3" display="https://leetcode-cn.com/problems/convert-sorted-list-to-binary-search-tree/" xr:uid="{ADD1B48C-99CC-4132-B52D-E037BA7EBBC4}"/>
+    <hyperlink ref="A7" r:id="rId4" display="https://leetcode-cn.com/problems/valid-parentheses/" xr:uid="{01849633-D0DA-4E50-A5A4-548051B557F9}"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://leetcode-cn.com/problems/climbing-stairs/" xr:uid="{EFC7F70D-ADE3-4CE9-98B2-1CFAA9C96BFE}"/>
+    <hyperlink ref="A5" r:id="rId6" display="https://leetcode-cn.com/problems/plus-one/" xr:uid="{2EE6E9C1-F3A5-45D1-A894-16D57E7A49B7}"/>
+    <hyperlink ref="A4" r:id="rId7" display="https://leetcode-cn.com/problems/two-sum/" xr:uid="{BC97BA3E-DC6B-4548-8538-D582ED40EFAA}"/>
+    <hyperlink ref="A3" r:id="rId8" display="https://leetcode-cn.com/problems/3sum/" xr:uid="{FC2A43B5-2AC1-48D2-827B-3D865D5D3247}"/>
+    <hyperlink ref="A2" r:id="rId9" display="https://leetcode-cn.com/problems/lru-cache/" xr:uid="{A47885E7-EAEF-46AB-9835-63DBF30A223F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/note/力扣刷题表.xlsx
+++ b/note/力扣刷题表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Learning Materials\Arithmetic\algorithm014-algorithm014\note\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsw67\Desktop\algorithm\algorithm014-algorithm014\note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A03CEF4-774A-48E4-983B-A470F4A8C51F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BE9AC1-8E2D-473F-ACBB-60817CCE29EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5355" yWindow="1410" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>8.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,37 @@
   </si>
   <si>
     <t>8.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>647. 回文子串</t>
+  </si>
+  <si>
+    <t>8.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111. 二叉树的最小深度</t>
+  </si>
+  <si>
+    <t>8.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>239. 滑动窗口最大值</t>
+  </si>
+  <si>
+    <t>剑指 Offer 40. 最小的k个数</t>
+  </si>
+  <si>
+    <t>347. 前 K 个高频元素</t>
+  </si>
+  <si>
+    <t>8.23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -615,7 +646,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -793,17 +824,27 @@
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="A11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -811,7 +852,9 @@
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -820,7 +863,9 @@
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
+      <c r="A14" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -829,8 +874,12 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -1146,8 +1195,13 @@
     <hyperlink ref="A4" r:id="rId7" display="https://leetcode-cn.com/problems/two-sum/" xr:uid="{BC97BA3E-DC6B-4548-8538-D582ED40EFAA}"/>
     <hyperlink ref="A3" r:id="rId8" display="https://leetcode-cn.com/problems/3sum/" xr:uid="{FC2A43B5-2AC1-48D2-827B-3D865D5D3247}"/>
     <hyperlink ref="A2" r:id="rId9" display="https://leetcode-cn.com/problems/lru-cache/" xr:uid="{A47885E7-EAEF-46AB-9835-63DBF30A223F}"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://leetcode-cn.com/problems/palindromic-substrings/" xr:uid="{4DDB7836-21F7-44E5-AAC3-6DF15E5664DB}"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://leetcode-cn.com/problems/minimum-depth-of-binary-tree/" xr:uid="{0BCBFD99-A2AD-4D1E-9FF3-52775F4DF8B8}"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://leetcode-cn.com/problems/sliding-window-maximum/" xr:uid="{B039E227-2A5C-4F68-9D38-02A3F6B59851}"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://leetcode-cn.com/problems/zui-xiao-de-kge-shu-lcof/" xr:uid="{78269129-01B2-4214-ACAA-F199AA809268}"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://leetcode-cn.com/problems/top-k-frequent-elements/" xr:uid="{0544FF51-2001-4ED6-9190-10D990F52A2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/note/力扣刷题表.xlsx
+++ b/note/力扣刷题表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lsw67\Desktop\algorithm\algorithm014-algorithm014\note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BE9AC1-8E2D-473F-ACBB-60817CCE29EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28ECD654-15A8-424A-B8C1-4CD9CF94E1DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5355" yWindow="1410" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>8.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,16 @@
   <si>
     <t>8.23</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>459. 重复的子字符串</t>
+  </si>
+  <si>
+    <t>8.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.25</t>
   </si>
 </sst>
 </file>
@@ -646,7 +656,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -693,7 +703,9 @@
       <c r="D2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
@@ -710,7 +722,9 @@
       <c r="D3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
@@ -727,7 +741,9 @@
       <c r="D4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
     </row>
@@ -744,7 +760,9 @@
       <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
@@ -758,7 +776,9 @@
       <c r="C6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -887,7 +907,9 @@
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
+      <c r="A16" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1200,8 +1222,9 @@
     <hyperlink ref="A13" r:id="rId12" display="https://leetcode-cn.com/problems/sliding-window-maximum/" xr:uid="{B039E227-2A5C-4F68-9D38-02A3F6B59851}"/>
     <hyperlink ref="A14" r:id="rId13" display="https://leetcode-cn.com/problems/zui-xiao-de-kge-shu-lcof/" xr:uid="{78269129-01B2-4214-ACAA-F199AA809268}"/>
     <hyperlink ref="A15" r:id="rId14" display="https://leetcode-cn.com/problems/top-k-frequent-elements/" xr:uid="{0544FF51-2001-4ED6-9190-10D990F52A2C}"/>
+    <hyperlink ref="A16" r:id="rId15" display="https://leetcode-cn.com/problems/repeated-substring-pattern/" xr:uid="{45AD8F84-F4D3-4167-8E8E-115E34790DA3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>